--- a/AssignmentNo1/AssignmentNo1/Data/Config.xlsx
+++ b/AssignmentNo1/AssignmentNo1/Data/Config.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7950" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7950"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="55">
   <si>
     <t>Name</t>
   </si>
@@ -168,6 +168,26 @@
   </si>
   <si>
     <t>This is a logging field which allows you to group the log data of two or more subprocesses under the same business process name</t>
+  </si>
+  <si>
+    <t>LoginUP</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://acme-test.uipath.com/account/login</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>System1URL</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.sha1-online.com/</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SHA1OnlineURL</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>LoginUP</t>
@@ -178,7 +198,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -202,6 +222,12 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -220,19 +246,51 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD7D7D7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
+      <tableStyleElement type="wholeTable" dxfId="1"/>
+      <tableStyleElement type="headerRow" dxfId="0"/>
+    </tableStyle>
+  </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -509,15 +567,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z997"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="68" customWidth="1"/>
-    <col min="2" max="2" width="70.140625" customWidth="1"/>
-    <col min="3" max="3" width="68.5703125" customWidth="1"/>
+    <col min="1" max="1" width="50" customWidth="1"/>
+    <col min="2" max="2" width="49.7109375" customWidth="1"/>
+    <col min="3" max="3" width="43.28515625" customWidth="1"/>
     <col min="4" max="26" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
@@ -581,14 +639,28 @@
     <row r="5" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="6" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="7" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="8" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="7" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>52</v>
+      </c>
+    </row>
     <row r="9" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="10" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="11" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1580,6 +1652,10 @@
     <row r="997" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="B7" r:id="rId1"/>
+    <hyperlink ref="B8" r:id="rId2"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1588,8 +1664,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2804,12 +2880,14 @@
   <dimension ref="A1:Z1000"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="26" width="65.42578125" customWidth="1"/>
+    <col min="1" max="1" width="38" customWidth="1"/>
+    <col min="2" max="2" width="44.42578125" customWidth="1"/>
+    <col min="3" max="26" width="65.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">

--- a/AssignmentNo1/AssignmentNo1/Data/Config.xlsx
+++ b/AssignmentNo1/AssignmentNo1/Data/Config.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="57">
   <si>
     <t>Name</t>
   </si>
@@ -174,10 +174,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>https://acme-test.uipath.com/account/login</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>System1URL</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -190,7 +186,19 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>NoLogNoticeEmail</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>46803259@qq.com</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>LoginUP</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://acme-test.uipath.com/</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -568,7 +576,7 @@
   <dimension ref="A1:Z997"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -639,7 +647,7 @@
     <row r="5" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="6" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>49</v>
@@ -647,21 +655,28 @@
     </row>
     <row r="7" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
     </row>
     <row r="8" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="B8" s="4" t="s">
-        <v>52</v>
+      <c r="B9" s="4" t="s">
+        <v>54</v>
       </c>
     </row>
-    <row r="9" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="10" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="11" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="12" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1655,6 +1670,7 @@
   <hyperlinks>
     <hyperlink ref="B7" r:id="rId1"/>
     <hyperlink ref="B8" r:id="rId2"/>
+    <hyperlink ref="B9" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
